--- a/medicine/Sexualité et sexologie/Excès_de_confiance_(film)/Excès_de_confiance_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Excès_de_confiance_(film)/Excès_de_confiance_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exc%C3%A8s_de_confiance_(film)</t>
+          <t>Excès_de_confiance_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Excès de confiance ou L'Inconnu au Québec (Never Talk to Strangers) est un film américain réalisé en 1995 par Peter Hall.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exc%C3%A8s_de_confiance_(film)</t>
+          <t>Excès_de_confiance_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarah Taylor, psychologue judiciaire, mène une existence terne et solitaire jusqu'au jour où elle rencontre Tony Ramirez, un ex-policier de Porto Rico. Très vite, ils entament une liaison passionnée. Tout semble sourire enfin à Sara. Mais elle commence à recevoir des menaces très inquiétantes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Exc%C3%A8s_de_confiance_(film)</t>
+          <t>Excès_de_confiance_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Excès de confiance
 Titre québécois : L'Inconnu
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Exc%C3%A8s_de_confiance_(film)</t>
+          <t>Excès_de_confiance_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rebecca De Mornay (VF : Béatrice Agenin ; VQ : Claudie Verdant) : Dr Sarah Taylor
 Antonio Banderas (VF : Christian Brendel ; VQ : Luis de Cespedes) : Tony Ramirez
@@ -599,7 +617,7 @@
 Martha Burns (VQ : Lisette Dufour) : Maura
 Tim Kelleher (VQ : Pierre Auger (acteur)) : Wabash
 Beau Starr : Grogan
-Source et légende : Version québécoise (V. Q.) sur Doublage QC[1].</t>
+Source et légende : Version québécoise (V. Q.) sur Doublage QC.</t>
         </is>
       </c>
     </row>
